--- a/data_processed/20250909/BTCUSDQMOMENT_20250909.xlsx
+++ b/data_processed/20250909/BTCUSDQMOMENT_20250909.xlsx
@@ -544,19 +544,19 @@
         <v>0.1424657534246575</v>
       </c>
       <c r="D3" t="n">
-        <v>112533.3663530384</v>
+        <v>112558.6169966177</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.01909430404073182</v>
+        <v>-0.01793792615951216</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1728155143652927</v>
+        <v>0.168228484785362</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.197035217388404</v>
+        <v>-0.9858338634566688</v>
       </c>
       <c r="H3" t="n">
-        <v>10.83309386973573</v>
+        <v>8.814173138256782</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -680,19 +680,19 @@
         <v>0.4684931506849315</v>
       </c>
       <c r="D7" t="n">
-        <v>115387.2238974011</v>
+        <v>115377.222283621</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.02329718423332614</v>
+        <v>-0.02457030015719104</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1995879168664023</v>
+        <v>0.205356130593579</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.458548781342674</v>
+        <v>-0.5979058647301055</v>
       </c>
       <c r="H7" t="n">
-        <v>4.907928602178837</v>
+        <v>5.50870602778383</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -714,19 +714,19 @@
         <v>0.7178082191780822</v>
       </c>
       <c r="D8" t="n">
-        <v>115643.8970641071</v>
+        <v>115642.2723198344</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.03772782925476648</v>
+        <v>-0.03782191976319748</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1979718113957536</v>
+        <v>0.1984381254595149</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.26383357387501</v>
+        <v>-1.281155195030867</v>
       </c>
       <c r="H8" t="n">
-        <v>8.61775566765486</v>
+        <v>8.772604062186625</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -748,19 +748,19 @@
         <v>0.7945205479452054</v>
       </c>
       <c r="D9" t="n">
-        <v>117145.8746894842</v>
+        <v>117156.835540117</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.06899021943994139</v>
+        <v>-0.06728746462106372</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3365088729482733</v>
+        <v>0.3233693267818493</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.147626684546458</v>
+        <v>-1.844944676513989</v>
       </c>
       <c r="H9" t="n">
-        <v>14.56777003057582</v>
+        <v>11.36404209307687</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -782,19 +782,19 @@
         <v>1.043835616438356</v>
       </c>
       <c r="D10" t="n">
-        <v>119065.8908675039</v>
+        <v>118668.331208669</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.09262717413222762</v>
+        <v>-0.1046918920944829</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3716522798905745</v>
+        <v>0.4135241985041633</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.568533238273599</v>
+        <v>-1.872670482640333</v>
       </c>
       <c r="H10" t="n">
-        <v>7.749363819803936</v>
+        <v>9.58161668687984</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -884,19 +884,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D13" t="n">
-        <v>111665.0203247202</v>
+        <v>111755.7589752862</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.03576786013764902</v>
+        <v>-0.02770118955574321</v>
       </c>
       <c r="F13" t="n">
-        <v>0.177376198156932</v>
+        <v>0.1400204828551337</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.068079523258437</v>
+        <v>-0.263608381758998</v>
       </c>
       <c r="H13" t="n">
-        <v>20.1619959523439</v>
+        <v>4.878534593564482</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -988,19 +988,19 @@
         <v>0.005479452054794521</v>
       </c>
       <c r="D16" t="n">
-        <v>111666.0790384044</v>
+        <v>111666.5225405059</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.05063734851008633</v>
+        <v>-0.05058030847475746</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1645880042060623</v>
+        <v>0.164508674736923</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.6960658641234545</v>
+        <v>-0.6950933036113355</v>
       </c>
       <c r="H16" t="n">
-        <v>5.014656566263765</v>
+        <v>5.012956620614996</v>
       </c>
       <c r="I16" t="n">
         <v>0.372167060167827</v>
@@ -1072,19 +1072,19 @@
         <v>0.0273972602739726</v>
       </c>
       <c r="D18" t="n">
-        <v>111692.7655187572</v>
+        <v>111674.572228204</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.03077740083379396</v>
+        <v>-0.03193426404774774</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1498019996298361</v>
+        <v>0.1520460463169616</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.659716127185082</v>
+        <v>-0.7151408038088994</v>
       </c>
       <c r="H18" t="n">
-        <v>4.395867897681192</v>
+        <v>4.665645595731196</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>

--- a/data_processed/20250909/BTCUSDQMOMENT_20250909.xlsx
+++ b/data_processed/20250909/BTCUSDQMOMENT_20250909.xlsx
@@ -864,10 +864,18 @@
       <c r="H12" t="n">
         <v>5.569029515826807</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>0.4959967553826868</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01059582026591913</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.01514285199917103</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.663557790814084</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -898,10 +906,18 @@
       <c r="H13" t="n">
         <v>4.878534593564482</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>0.4994216603121239</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.009152511499156205</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.1213644036507729</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.921334939992117</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -968,10 +984,18 @@
       <c r="H15" t="n">
         <v>6.163366665062721</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>0.5169561186157083</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.01016064815776268</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.2810304976759443</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.845989007204349</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">

--- a/data_processed/20250909/BTCUSDQMOMENT_20250909.xlsx
+++ b/data_processed/20250909/BTCUSDQMOMENT_20250909.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>7.342438936742024</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0.4156775366266385</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1098859006005522</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-1.087633391575571</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.118064670403419</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1110,10 +1118,18 @@
       <c r="H18" t="n">
         <v>4.665645595731196</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0.5795541072341911</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.02670569459762242</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.7716191783871154</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.272474195117635</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">

--- a/data_processed/20250909/BTCUSDQMOMENT_20250909.xlsx
+++ b/data_processed/20250909/BTCUSDQMOMENT_20250909.xlsx
@@ -1160,10 +1160,18 @@
       <c r="H19" t="n">
         <v>6.152338567716306</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.4270390154741289</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.2157505895368739</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.1957046463614244</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.961627167294484</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1194,10 +1202,18 @@
       <c r="H20" t="n">
         <v>5.49745497074329</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0.7259974791323728</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.4796735828753367</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.2329828474207306</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.229085699281371</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250909/BTCUSDQMOMENT_20250909.xlsx
+++ b/data_processed/20250909/BTCUSDQMOMENT_20250909.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>8.814173138256782</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>0.3486084367838913</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5738014500075432</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4457564652853099</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.653079583015679</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
